--- a/results/mp/deberta/corona/confidence/168/stop-words-desired-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-desired-0.2/avg_0.003_scores.xlsx
@@ -118,34 +118,34 @@
     <t>support</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>please</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
   </si>
   <si>
     <t>hand</t>
@@ -1328,25 +1328,25 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.7444933920704846</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="L24">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="M24">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="N24">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O24">
-        <v>0.06999999999999995</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P24" t="b">
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>58</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1354,25 +1354,25 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.7333333333333333</v>
+        <v>0.7121212121212122</v>
       </c>
       <c r="L25">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="M25">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="N25">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="O25">
-        <v>0.06000000000000005</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P25" t="b">
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1380,25 +1380,25 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.7121212121212122</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="L26">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="M26">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="N26">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="O26">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P26" t="b">
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1406,25 +1406,25 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.7111111111111111</v>
+        <v>0.7071129707112971</v>
       </c>
       <c r="L27">
-        <v>32</v>
+        <v>169</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>169</v>
       </c>
       <c r="N27">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O27">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1484,25 +1484,25 @@
         <v>40</v>
       </c>
       <c r="K30">
-        <v>0.6319018404907976</v>
+        <v>0.625</v>
       </c>
       <c r="L30">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="M30">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="N30">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="O30">
-        <v>0.06000000000000005</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>120</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1510,25 +1510,25 @@
         <v>41</v>
       </c>
       <c r="K31">
-        <v>0.625</v>
+        <v>0.6188811188811189</v>
       </c>
       <c r="L31">
-        <v>40</v>
+        <v>177</v>
       </c>
       <c r="M31">
-        <v>41</v>
+        <v>186</v>
       </c>
       <c r="N31">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O31">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>24</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1536,13 +1536,13 @@
         <v>42</v>
       </c>
       <c r="K32">
-        <v>0.6188811188811189</v>
+        <v>0.6162790697674418</v>
       </c>
       <c r="L32">
-        <v>177</v>
+        <v>53</v>
       </c>
       <c r="M32">
-        <v>186</v>
+        <v>56</v>
       </c>
       <c r="N32">
         <v>0.95</v>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="Q32">
-        <v>109</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1562,25 +1562,25 @@
         <v>43</v>
       </c>
       <c r="K33">
-        <v>0.6162790697674418</v>
+        <v>0.6058823529411764</v>
       </c>
       <c r="L33">
-        <v>53</v>
+        <v>206</v>
       </c>
       <c r="M33">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="N33">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>33</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="10:17">
